--- a/biology/Zoologie/Boophis/Boophis.xlsx
+++ b/biology/Zoologie/Boophis/Boophis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis est un genre d'amphibiens de la famille des Mantellidae, le seul de la sous-famille des Boophinae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis est un genre d'amphibiens de la famille des Mantellidae, le seul de la sous-famille des Boophinae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 77 espèces de ce genre sont endémiques de Madagascar sauf une de Mayotte[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 77 espèces de ce genre sont endémiques de Madagascar sauf une de Mayotte.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de la famille des Boophinae sont des espèces arboricoles mais certaines sont en partie terrestres. La ponte a lieu en eau libre et non à la racine de feuilles ou de cavités dans les arbres.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (6 décembre 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (6 décembre 2015) :
 Boophis albilabris (Boulenger, 1888)
 Boophis albipunctatus Glaw &amp; Thiesmeier, 1993
 Boophis andohahela Andreone, Nincheri &amp; Piazza, 1995
@@ -680,7 +698,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tschudi, 1838 : Classification der Batrachier, mit Berucksichtigung der fossilen Thiere dieser Abtheilung der Reptilien, p. 1-99 (texte intégral).
 Vences &amp; Glaw, 2001 : When molecules claim for taxonomic changes: new proposals on the classification of Old World treefrogs. Spixiana, vol. 24, p. 85-92 (texte intégral).</t>
